--- a/resources/Standards.xlsx
+++ b/resources/Standards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="710" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1310" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Standards" sheetId="1" r:id="rId1"/>
@@ -243,11 +243,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,9 +553,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -565,21 +565,19 @@
     <col min="2" max="2" width="6.54296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="85.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>91026</v>
       </c>
@@ -595,23 +593,8 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Coding!A2,".html%quote%'&gt;&lt;td&gt;",Coding!A2,"&lt;/td&gt;&lt;td&gt;",Coding!B2,"&lt;/td&gt;&lt;td&gt;",Coding!C2,"&lt;/td&gt;&lt;td&gt;",Coding!D2,"&lt;/td&gt;&lt;td&gt;",Coding!E2,"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v>&lt;tr class=click onclick='document.location=%quote%&lt;tr class=click onclick='document.location=%quote%91026.html%quote%'&gt;&lt;td&gt;91026&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;Apply numeric reasoning in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;.html%quote%'&gt;&lt;td&gt;&lt;tr class=click onclick='document.location=%quote%91026.html%quote%'&gt;&lt;td&gt;91026&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;Apply numeric reasoning in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;&lt;/td&gt;&lt;td&gt;&lt;h1&gt;91026 (1.1) Apply numeric reasoning in solving problems&lt;/h1&gt;
- Credits: 4 credits&lt;br&gt;
- Internal&lt;br&gt;
- &lt;br&gt;
- Other Resources:
- &lt;ul&gt;
-  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91026' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
-  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-1/as91026/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
-  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-1-as91026/' target='_blank'&gt;Exemplars&lt;/a&gt;
-  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-1-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
-  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level6' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
- &lt;/ul&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>91027</v>
       </c>
@@ -627,12 +610,8 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G45" si="0">CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",A3,".html%quote%'&gt;&lt;td&gt;",A3,"&lt;/td&gt;&lt;td&gt;",B3,"&lt;/td&gt;&lt;td&gt;",C3,"&lt;/td&gt;&lt;td&gt;",D3,"&lt;/td&gt;&lt;td&gt;",E3,"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v>&lt;tr class=click onclick='document.location=%quote%91027.html%quote%'&gt;&lt;td&gt;91027&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;Apply algebraic procedures in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>91028</v>
       </c>
@@ -648,12 +627,8 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91028.html%quote%'&gt;&lt;td&gt;91028&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;Investigate relationships between tables, equations and graphs&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>91029</v>
       </c>
@@ -669,12 +644,8 @@
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91029.html%quote%'&gt;&lt;td&gt;91029&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;Apply linear algebra in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>91030</v>
       </c>
@@ -690,12 +661,8 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91030.html%quote%'&gt;&lt;td&gt;91030&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;Apply measurement in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>91031</v>
       </c>
@@ -711,12 +678,8 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91031.html%quote%'&gt;&lt;td&gt;91031&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;Apply geometric reasoning in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>91032</v>
       </c>
@@ -732,12 +695,8 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91032.html%quote%'&gt;&lt;td&gt;91032&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;Apply right-angled triangles in solving measurement problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>91033</v>
       </c>
@@ -753,12 +712,8 @@
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91033.html%quote%'&gt;&lt;td&gt;91033&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;Apply knowledge of geometric representations in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>91034</v>
       </c>
@@ -774,12 +729,8 @@
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91034.html%quote%'&gt;&lt;td&gt;91034&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;Apply transformation geometry in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>91035</v>
       </c>
@@ -795,12 +746,8 @@
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91035.html%quote%'&gt;&lt;td&gt;91035&lt;/td&gt;&lt;td&gt;1.10&lt;/td&gt;&lt;td&gt;Investigate a given multivariate data set using the statistical enquiry cycle&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>91036</v>
       </c>
@@ -816,12 +763,8 @@
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91036.html%quote%'&gt;&lt;td&gt;91036&lt;/td&gt;&lt;td&gt;1.11&lt;/td&gt;&lt;td&gt;Investigate bivariate numerical data using the statistical enquiry cycle&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>91037</v>
       </c>
@@ -837,12 +780,8 @@
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91037.html%quote%'&gt;&lt;td&gt;91037&lt;/td&gt;&lt;td&gt;1.12&lt;/td&gt;&lt;td&gt;Demonstrate understanding of chance and data&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>91038</v>
       </c>
@@ -858,21 +797,17 @@
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91038.html%quote%'&gt;&lt;td&gt;91038&lt;/td&gt;&lt;td&gt;1.13&lt;/td&gt;&lt;td&gt;Investigate a situation involving elements of chance&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>91256</v>
       </c>
@@ -888,12 +823,8 @@
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91256.html%quote%'&gt;&lt;td&gt;91256&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;td&gt;Apply co-ordinate geometry methods in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>91257</v>
       </c>
@@ -909,12 +840,8 @@
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91257.html%quote%'&gt;&lt;td&gt;91257&lt;/td&gt;&lt;td&gt;2.2&lt;/td&gt;&lt;td&gt;Apply graphical methods in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>91258</v>
       </c>
@@ -930,12 +857,8 @@
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91258.html%quote%'&gt;&lt;td&gt;91258&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;Apply sequences and series in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>91259</v>
       </c>
@@ -951,12 +874,8 @@
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91259.html%quote%'&gt;&lt;td&gt;91259&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;Apply trigonometric relationships in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>91260</v>
       </c>
@@ -972,12 +891,8 @@
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91260.html%quote%'&gt;&lt;td&gt;91260&lt;/td&gt;&lt;td&gt;2.5&lt;/td&gt;&lt;td&gt;Apply network methods in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>91261</v>
       </c>
@@ -993,12 +908,8 @@
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91261.html%quote%'&gt;&lt;td&gt;91261&lt;/td&gt;&lt;td&gt;2.6&lt;/td&gt;&lt;td&gt;Apply algebraic methods in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>91262</v>
       </c>
@@ -1014,12 +925,8 @@
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91262.html%quote%'&gt;&lt;td&gt;91262&lt;/td&gt;&lt;td&gt;2.7&lt;/td&gt;&lt;td&gt;Apply calculus methods in solving problems&lt;/td&gt;&lt;td&gt;5 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>91263</v>
       </c>
@@ -1035,12 +942,8 @@
       <c r="E23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91263.html%quote%'&gt;&lt;td&gt;91263&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;Design a questionnaire&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>91264</v>
       </c>
@@ -1056,12 +959,8 @@
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91264.html%quote%'&gt;&lt;td&gt;91264&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;Use statistical methods to make an inference&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>91265</v>
       </c>
@@ -1077,12 +976,8 @@
       <c r="E25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91265.html%quote%'&gt;&lt;td&gt;91265&lt;/td&gt;&lt;td&gt;2.10&lt;/td&gt;&lt;td&gt;Conduct an experiment to investigate a situation using statistical methods&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>91266</v>
       </c>
@@ -1098,12 +993,8 @@
       <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91266.html%quote%'&gt;&lt;td&gt;91266&lt;/td&gt;&lt;td&gt;2.11&lt;/td&gt;&lt;td&gt;Evaluate a statistically based report&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>91267</v>
       </c>
@@ -1119,12 +1010,8 @@
       <c r="E27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91267.html%quote%'&gt;&lt;td&gt;91267&lt;/td&gt;&lt;td&gt;2.12&lt;/td&gt;&lt;td&gt;Apply probability methods in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>91268</v>
       </c>
@@ -1140,12 +1027,8 @@
       <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91268.html%quote%'&gt;&lt;td&gt;91268&lt;/td&gt;&lt;td&gt;2.13&lt;/td&gt;&lt;td&gt;Investigate a situation involving elements of chance using a simulation&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>91269</v>
       </c>
@@ -1161,21 +1044,17 @@
       <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91269.html%quote%'&gt;&lt;td&gt;91269&lt;/td&gt;&lt;td&gt;2.14&lt;/td&gt;&lt;td&gt;Apply systems of equations in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>91573</v>
       </c>
@@ -1191,12 +1070,8 @@
       <c r="E31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91573.html%quote%'&gt;&lt;td&gt;91573&lt;/td&gt;&lt;td&gt;3.1&lt;/td&gt;&lt;td&gt;Apply the geometry of conic sections in solving problems&lt;/td&gt;&lt;td&gt;4 Credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>91574</v>
       </c>
@@ -1212,12 +1087,8 @@
       <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91574.html%quote%'&gt;&lt;td&gt;91574&lt;/td&gt;&lt;td&gt;3.2&lt;/td&gt;&lt;td&gt;Apply linear programming methods in solving problems&lt;/td&gt;&lt;td&gt;3 Credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>91575</v>
       </c>
@@ -1233,12 +1104,8 @@
       <c r="E33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91575.html%quote%'&gt;&lt;td&gt;91575&lt;/td&gt;&lt;td&gt;3.3&lt;/td&gt;&lt;td&gt;Apply trigonometric methods in solving problems&lt;/td&gt;&lt;td&gt;3 Credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>91576</v>
       </c>
@@ -1254,12 +1121,8 @@
       <c r="E34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91576.html%quote%'&gt;&lt;td&gt;91576&lt;/td&gt;&lt;td&gt;3.4&lt;/td&gt;&lt;td&gt;Use critical path analysis in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>91577</v>
       </c>
@@ -1275,12 +1138,8 @@
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91577.html%quote%'&gt;&lt;td&gt;91577&lt;/td&gt;&lt;td&gt;3.5&lt;/td&gt;&lt;td&gt;Apply the algebra of complex numbers in solving problems&lt;/td&gt;&lt;td&gt;5 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>91578</v>
       </c>
@@ -1296,12 +1155,8 @@
       <c r="E36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91578.html%quote%'&gt;&lt;td&gt;91578&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;Apply differentiation methods in solving problems&lt;/td&gt;&lt;td&gt;6 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>91579</v>
       </c>
@@ -1317,12 +1172,8 @@
       <c r="E37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91579.html%quote%'&gt;&lt;td&gt;91579&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;Apply integration methods in solving problems&lt;/td&gt;&lt;td&gt;6 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>91580</v>
       </c>
@@ -1338,12 +1189,8 @@
       <c r="E38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91580.html%quote%'&gt;&lt;td&gt;91580&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;Investigate time series data&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>91581</v>
       </c>
@@ -1359,12 +1206,8 @@
       <c r="E39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91581.html%quote%'&gt;&lt;td&gt;91581&lt;/td&gt;&lt;td&gt;3.9&lt;/td&gt;&lt;td&gt;Investigate bivariate measurement data&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>91582</v>
       </c>
@@ -1380,12 +1223,8 @@
       <c r="E40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91582.html%quote%'&gt;&lt;td&gt;91582&lt;/td&gt;&lt;td&gt;3.10&lt;/td&gt;&lt;td&gt;Use statistical methods to make a formal inference&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>91583</v>
       </c>
@@ -1401,12 +1240,8 @@
       <c r="E41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91583.html%quote%'&gt;&lt;td&gt;91583&lt;/td&gt;&lt;td&gt;3.11&lt;/td&gt;&lt;td&gt;Conduct an experiment to investigate a situation using experimental design principles&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>91584</v>
       </c>
@@ -1422,12 +1257,8 @@
       <c r="E42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91584.html%quote%'&gt;&lt;td&gt;91584&lt;/td&gt;&lt;td&gt;3.12&lt;/td&gt;&lt;td&gt;Evaluate statistically based reports&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>91585</v>
       </c>
@@ -1443,12 +1274,8 @@
       <c r="E43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91585.html%quote%'&gt;&lt;td&gt;91585&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;Apply probability concepts in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>91586</v>
       </c>
@@ -1464,12 +1291,8 @@
       <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91586.html%quote%'&gt;&lt;td&gt;91586&lt;/td&gt;&lt;td&gt;3.14&lt;/td&gt;&lt;td&gt;Apply probability distributions in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>91587</v>
       </c>
@@ -1484,10 +1307,6 @@
       </c>
       <c r="E45" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class=click onclick='document.location=%quote%91587.html%quote%'&gt;&lt;td&gt;91587&lt;/td&gt;&lt;td&gt;3.15&lt;/td&gt;&lt;td&gt;Apply systems of simultaneous equations in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -1505,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1519,7 +1338,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A2,".html%quote%'&gt;&lt;td&gt;",Standards!A2,"&lt;/td&gt;&lt;td&gt;",Standards!B2,"&lt;/td&gt;&lt;td&gt;",Standards!C2,"&lt;/td&gt;&lt;td&gt;",Standards!D2,"&lt;/td&gt;&lt;td&gt;",Standards!E2,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91026.html%quote%'&gt;&lt;td&gt;91026&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;Apply numeric reasoning in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A2," (",Standards!B2,") ",Standards!C2,"&lt;/h1&gt;
  Credits: ",Standards!D2,"&lt;br&gt;
  ",Standards!E2,"&lt;br&gt;
@@ -1551,7 +1370,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A3,".html%quote%'&gt;&lt;td&gt;",Standards!A3,"&lt;/td&gt;&lt;td&gt;",Standards!B3,"&lt;/td&gt;&lt;td&gt;",Standards!C3,"&lt;/td&gt;&lt;td&gt;",Standards!D3,"&lt;/td&gt;&lt;td&gt;",Standards!E3,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91027.html%quote%'&gt;&lt;td&gt;91027&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;Apply algebraic procedures in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A3," (",Standards!B3,") ",Standards!C3,"&lt;/h1&gt;
  Credits: ",Standards!D3,"&lt;br&gt;
  ",Standards!E3,"&lt;br&gt;
@@ -1583,7 +1402,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A4,".html%quote%'&gt;&lt;td&gt;",Standards!A4,"&lt;/td&gt;&lt;td&gt;",Standards!B4,"&lt;/td&gt;&lt;td&gt;",Standards!C4,"&lt;/td&gt;&lt;td&gt;",Standards!D4,"&lt;/td&gt;&lt;td&gt;",Standards!E4,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91028.html%quote%'&gt;&lt;td&gt;91028&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;Investigate relationships between tables, equations and graphs&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A4," (",Standards!B4,") ",Standards!C4,"&lt;/h1&gt;
  Credits: ",Standards!D4,"&lt;br&gt;
  ",Standards!E4,"&lt;br&gt;
@@ -1615,7 +1434,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A5,".html%quote%'&gt;&lt;td&gt;",Standards!A5,"&lt;/td&gt;&lt;td&gt;",Standards!B5,"&lt;/td&gt;&lt;td&gt;",Standards!C5,"&lt;/td&gt;&lt;td&gt;",Standards!D5,"&lt;/td&gt;&lt;td&gt;",Standards!E5,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91029.html%quote%'&gt;&lt;td&gt;91029&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;Apply linear algebra in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A5," (",Standards!B5,") ",Standards!C5,"&lt;/h1&gt;
  Credits: ",Standards!D5,"&lt;br&gt;
  ",Standards!E5,"&lt;br&gt;
@@ -1647,7 +1466,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A6,".html%quote%'&gt;&lt;td&gt;",Standards!A6,"&lt;/td&gt;&lt;td&gt;",Standards!B6,"&lt;/td&gt;&lt;td&gt;",Standards!C6,"&lt;/td&gt;&lt;td&gt;",Standards!D6,"&lt;/td&gt;&lt;td&gt;",Standards!E6,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91030.html%quote%'&gt;&lt;td&gt;91030&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;Apply measurement in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A6," (",Standards!B6,") ",Standards!C6,"&lt;/h1&gt;
  Credits: ",Standards!D6,"&lt;br&gt;
  ",Standards!E6,"&lt;br&gt;
@@ -1679,7 +1498,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A7,".html%quote%'&gt;&lt;td&gt;",Standards!A7,"&lt;/td&gt;&lt;td&gt;",Standards!B7,"&lt;/td&gt;&lt;td&gt;",Standards!C7,"&lt;/td&gt;&lt;td&gt;",Standards!D7,"&lt;/td&gt;&lt;td&gt;",Standards!E7,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91031.html%quote%'&gt;&lt;td&gt;91031&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;Apply geometric reasoning in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A7," (",Standards!B7,") ",Standards!C7,"&lt;/h1&gt;
  Credits: ",Standards!D7,"&lt;br&gt;
  ",Standards!E7,"&lt;br&gt;
@@ -1711,7 +1530,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A8,".html%quote%'&gt;&lt;td&gt;",Standards!A8,"&lt;/td&gt;&lt;td&gt;",Standards!B8,"&lt;/td&gt;&lt;td&gt;",Standards!C8,"&lt;/td&gt;&lt;td&gt;",Standards!D8,"&lt;/td&gt;&lt;td&gt;",Standards!E8,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91032.html%quote%'&gt;&lt;td&gt;91032&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;Apply right-angled triangles in solving measurement problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A8," (",Standards!B8,") ",Standards!C8,"&lt;/h1&gt;
  Credits: ",Standards!D8,"&lt;br&gt;
  ",Standards!E8,"&lt;br&gt;
@@ -1743,7 +1562,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A9,".html%quote%'&gt;&lt;td&gt;",Standards!A9,"&lt;/td&gt;&lt;td&gt;",Standards!B9,"&lt;/td&gt;&lt;td&gt;",Standards!C9,"&lt;/td&gt;&lt;td&gt;",Standards!D9,"&lt;/td&gt;&lt;td&gt;",Standards!E9,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91033.html%quote%'&gt;&lt;td&gt;91033&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;Apply knowledge of geometric representations in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A9," (",Standards!B9,") ",Standards!C9,"&lt;/h1&gt;
  Credits: ",Standards!D9,"&lt;br&gt;
  ",Standards!E9,"&lt;br&gt;
@@ -1775,7 +1594,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A10,".html%quote%'&gt;&lt;td&gt;",Standards!A10,"&lt;/td&gt;&lt;td&gt;",Standards!B10,"&lt;/td&gt;&lt;td&gt;",Standards!C10,"&lt;/td&gt;&lt;td&gt;",Standards!D10,"&lt;/td&gt;&lt;td&gt;",Standards!E10,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91034.html%quote%'&gt;&lt;td&gt;91034&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;Apply transformation geometry in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A10," (",Standards!B10,") ",Standards!C10,"&lt;/h1&gt;
  Credits: ",Standards!D10,"&lt;br&gt;
  ",Standards!E10,"&lt;br&gt;
@@ -1807,7 +1626,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A11,".html%quote%'&gt;&lt;td&gt;",Standards!A11,"&lt;/td&gt;&lt;td&gt;",Standards!B11,"&lt;/td&gt;&lt;td&gt;",Standards!C11,"&lt;/td&gt;&lt;td&gt;",Standards!D11,"&lt;/td&gt;&lt;td&gt;",Standards!E11,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91035.html%quote%'&gt;&lt;td&gt;91035&lt;/td&gt;&lt;td&gt;1.10&lt;/td&gt;&lt;td&gt;Investigate a given multivariate data set using the statistical enquiry cycle&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A11," (",Standards!B11,") ",Standards!C11,"&lt;/h1&gt;
  Credits: ",Standards!D11,"&lt;br&gt;
  ",Standards!E11,"&lt;br&gt;
@@ -1839,7 +1658,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A12,".html%quote%'&gt;&lt;td&gt;",Standards!A12,"&lt;/td&gt;&lt;td&gt;",Standards!B12,"&lt;/td&gt;&lt;td&gt;",Standards!C12,"&lt;/td&gt;&lt;td&gt;",Standards!D12,"&lt;/td&gt;&lt;td&gt;",Standards!E12,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91036.html%quote%'&gt;&lt;td&gt;91036&lt;/td&gt;&lt;td&gt;1.11&lt;/td&gt;&lt;td&gt;Investigate bivariate numerical data using the statistical enquiry cycle&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A12," (",Standards!B12,") ",Standards!C12,"&lt;/h1&gt;
  Credits: ",Standards!D12,"&lt;br&gt;
  ",Standards!E12,"&lt;br&gt;
@@ -1871,7 +1690,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A13,".html%quote%'&gt;&lt;td&gt;",Standards!A13,"&lt;/td&gt;&lt;td&gt;",Standards!B13,"&lt;/td&gt;&lt;td&gt;",Standards!C13,"&lt;/td&gt;&lt;td&gt;",Standards!D13,"&lt;/td&gt;&lt;td&gt;",Standards!E13,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91037.html%quote%'&gt;&lt;td&gt;91037&lt;/td&gt;&lt;td&gt;1.12&lt;/td&gt;&lt;td&gt;Demonstrate understanding of chance and data&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A13," (",Standards!B13,") ",Standards!C13,"&lt;/h1&gt;
  Credits: ",Standards!D13,"&lt;br&gt;
  ",Standards!E13,"&lt;br&gt;
@@ -1903,7 +1722,7 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A14,".html%quote%'&gt;&lt;td&gt;",Standards!A14,"&lt;/td&gt;&lt;td&gt;",Standards!B14,"&lt;/td&gt;&lt;td&gt;",Standards!C14,"&lt;/td&gt;&lt;td&gt;",Standards!D14,"&lt;/td&gt;&lt;td&gt;",Standards!E14,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91038.html%quote%'&gt;&lt;td&gt;91038&lt;/td&gt;&lt;td&gt;1.13&lt;/td&gt;&lt;td&gt;Investigate a situation involving elements of chance&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="4" t="str">
         <f>CONCATENATE("&lt;h1&gt;",Standards!A14," (",Standards!B14,") ",Standards!C14,"&lt;/h1&gt;
  Credits: ",Standards!D14,"&lt;br&gt;
  ",Standards!E14,"&lt;br&gt;
@@ -1935,173 +1754,927 @@
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A16,".html%quote%'&gt;&lt;td&gt;",Standards!A16,"&lt;/td&gt;&lt;td&gt;",Standards!B16,"&lt;/td&gt;&lt;td&gt;",Standards!C16,"&lt;/td&gt;&lt;td&gt;",Standards!D16,"&lt;/td&gt;&lt;td&gt;",Standards!E16,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91256.html%quote%'&gt;&lt;td&gt;91256&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;td&gt;Apply co-ordinate geometry methods in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A16," (",Standards!B16,") ",Standards!C16,"&lt;/h1&gt;
+ Credits: ",Standards!D16,"&lt;br&gt;
+ ",Standards!E16,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A16,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A16,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A16,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91256 (2.1) Apply co-ordinate geometry methods in solving problems&lt;/h1&gt;
+ Credits: 2 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91256' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91256/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91256/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A17,".html%quote%'&gt;&lt;td&gt;",Standards!A17,"&lt;/td&gt;&lt;td&gt;",Standards!B17,"&lt;/td&gt;&lt;td&gt;",Standards!C17,"&lt;/td&gt;&lt;td&gt;",Standards!D17,"&lt;/td&gt;&lt;td&gt;",Standards!E17,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91257.html%quote%'&gt;&lt;td&gt;91257&lt;/td&gt;&lt;td&gt;2.2&lt;/td&gt;&lt;td&gt;Apply graphical methods in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A17," (",Standards!B17,") ",Standards!C17,"&lt;/h1&gt;
+ Credits: ",Standards!D17,"&lt;br&gt;
+ ",Standards!E17,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A17,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A17,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A17,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91257 (2.2) Apply graphical methods in solving problems&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91257' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91257/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91257/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A18,".html%quote%'&gt;&lt;td&gt;",Standards!A18,"&lt;/td&gt;&lt;td&gt;",Standards!B18,"&lt;/td&gt;&lt;td&gt;",Standards!C18,"&lt;/td&gt;&lt;td&gt;",Standards!D18,"&lt;/td&gt;&lt;td&gt;",Standards!E18,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91258.html%quote%'&gt;&lt;td&gt;91258&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;Apply sequences and series in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A18," (",Standards!B18,") ",Standards!C18,"&lt;/h1&gt;
+ Credits: ",Standards!D18,"&lt;br&gt;
+ ",Standards!E18,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A18,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A18,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A18,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91258 (2.3) Apply sequences and series in solving problems&lt;/h1&gt;
+ Credits: 2 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91258' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91258/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91258/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A19,".html%quote%'&gt;&lt;td&gt;",Standards!A19,"&lt;/td&gt;&lt;td&gt;",Standards!B19,"&lt;/td&gt;&lt;td&gt;",Standards!C19,"&lt;/td&gt;&lt;td&gt;",Standards!D19,"&lt;/td&gt;&lt;td&gt;",Standards!E19,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91259.html%quote%'&gt;&lt;td&gt;91259&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;Apply trigonometric relationships in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A19," (",Standards!B19,") ",Standards!C19,"&lt;/h1&gt;
+ Credits: ",Standards!D19,"&lt;br&gt;
+ ",Standards!E19,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A19,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A19,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A19,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91259 (2.4) Apply trigonometric relationships in solving problems&lt;/h1&gt;
+ Credits: 3 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91259' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91259/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91259/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A20,".html%quote%'&gt;&lt;td&gt;",Standards!A20,"&lt;/td&gt;&lt;td&gt;",Standards!B20,"&lt;/td&gt;&lt;td&gt;",Standards!C20,"&lt;/td&gt;&lt;td&gt;",Standards!D20,"&lt;/td&gt;&lt;td&gt;",Standards!E20,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91260.html%quote%'&gt;&lt;td&gt;91260&lt;/td&gt;&lt;td&gt;2.5&lt;/td&gt;&lt;td&gt;Apply network methods in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A20," (",Standards!B20,") ",Standards!C20,"&lt;/h1&gt;
+ Credits: ",Standards!D20,"&lt;br&gt;
+ ",Standards!E20,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A20,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A20,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A20,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91260 (2.5) Apply network methods in solving problems&lt;/h1&gt;
+ Credits: 2 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91260' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91260/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91260/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A21,".html%quote%'&gt;&lt;td&gt;",Standards!A21,"&lt;/td&gt;&lt;td&gt;",Standards!B21,"&lt;/td&gt;&lt;td&gt;",Standards!C21,"&lt;/td&gt;&lt;td&gt;",Standards!D21,"&lt;/td&gt;&lt;td&gt;",Standards!E21,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91261.html%quote%'&gt;&lt;td&gt;91261&lt;/td&gt;&lt;td&gt;2.6&lt;/td&gt;&lt;td&gt;Apply algebraic methods in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A21," (",Standards!B21,") ",Standards!C21,"&lt;/h1&gt;
+ Credits: ",Standards!D21,"&lt;br&gt;
+ ",Standards!E21,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A21,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A21,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A21,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91261 (2.6) Apply algebraic methods in solving problems&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91261' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91261/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91261/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A22,".html%quote%'&gt;&lt;td&gt;",Standards!A22,"&lt;/td&gt;&lt;td&gt;",Standards!B22,"&lt;/td&gt;&lt;td&gt;",Standards!C22,"&lt;/td&gt;&lt;td&gt;",Standards!D22,"&lt;/td&gt;&lt;td&gt;",Standards!E22,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91262.html%quote%'&gt;&lt;td&gt;91262&lt;/td&gt;&lt;td&gt;2.7&lt;/td&gt;&lt;td&gt;Apply calculus methods in solving problems&lt;/td&gt;&lt;td&gt;5 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A22," (",Standards!B22,") ",Standards!C22,"&lt;/h1&gt;
+ Credits: ",Standards!D22,"&lt;br&gt;
+ ",Standards!E22,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A22,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A22,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A22,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91262 (2.7) Apply calculus methods in solving problems&lt;/h1&gt;
+ Credits: 5 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91262' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91262/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91262/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A23,".html%quote%'&gt;&lt;td&gt;",Standards!A23,"&lt;/td&gt;&lt;td&gt;",Standards!B23,"&lt;/td&gt;&lt;td&gt;",Standards!C23,"&lt;/td&gt;&lt;td&gt;",Standards!D23,"&lt;/td&gt;&lt;td&gt;",Standards!E23,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91263.html%quote%'&gt;&lt;td&gt;91263&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;Design a questionnaire&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A23," (",Standards!B23,") ",Standards!C23,"&lt;/h1&gt;
+ Credits: ",Standards!D23,"&lt;br&gt;
+ ",Standards!E23,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A23,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A23,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A23,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91263 (2.8) Design a questionnaire&lt;/h1&gt;
+ Credits: 3 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91263' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91263/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91263/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A24,".html%quote%'&gt;&lt;td&gt;",Standards!A24,"&lt;/td&gt;&lt;td&gt;",Standards!B24,"&lt;/td&gt;&lt;td&gt;",Standards!C24,"&lt;/td&gt;&lt;td&gt;",Standards!D24,"&lt;/td&gt;&lt;td&gt;",Standards!E24,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91264.html%quote%'&gt;&lt;td&gt;91264&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;Use statistical methods to make an inference&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A24," (",Standards!B24,") ",Standards!C24,"&lt;/h1&gt;
+ Credits: ",Standards!D24,"&lt;br&gt;
+ ",Standards!E24,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A24,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A24,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A24,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91264 (2.9) Use statistical methods to make an inference&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91264' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91264/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91264/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A25,".html%quote%'&gt;&lt;td&gt;",Standards!A25,"&lt;/td&gt;&lt;td&gt;",Standards!B25,"&lt;/td&gt;&lt;td&gt;",Standards!C25,"&lt;/td&gt;&lt;td&gt;",Standards!D25,"&lt;/td&gt;&lt;td&gt;",Standards!E25,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91265.html%quote%'&gt;&lt;td&gt;91265&lt;/td&gt;&lt;td&gt;2.10&lt;/td&gt;&lt;td&gt;Conduct an experiment to investigate a situation using statistical methods&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A25," (",Standards!B25,") ",Standards!C25,"&lt;/h1&gt;
+ Credits: ",Standards!D25,"&lt;br&gt;
+ ",Standards!E25,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A25,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A25,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A25,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91265 (2.10) Conduct an experiment to investigate a situation using statistical methods&lt;/h1&gt;
+ Credits: 3 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91265' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91265/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91265/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A26,".html%quote%'&gt;&lt;td&gt;",Standards!A26,"&lt;/td&gt;&lt;td&gt;",Standards!B26,"&lt;/td&gt;&lt;td&gt;",Standards!C26,"&lt;/td&gt;&lt;td&gt;",Standards!D26,"&lt;/td&gt;&lt;td&gt;",Standards!E26,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91266.html%quote%'&gt;&lt;td&gt;91266&lt;/td&gt;&lt;td&gt;2.11&lt;/td&gt;&lt;td&gt;Evaluate a statistically based report&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A26," (",Standards!B26,") ",Standards!C26,"&lt;/h1&gt;
+ Credits: ",Standards!D26,"&lt;br&gt;
+ ",Standards!E26,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A26,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A26,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A26,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91266 (2.11) Evaluate a statistically based report&lt;/h1&gt;
+ Credits: 2 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91266' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91266/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91266/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A27,".html%quote%'&gt;&lt;td&gt;",Standards!A27,"&lt;/td&gt;&lt;td&gt;",Standards!B27,"&lt;/td&gt;&lt;td&gt;",Standards!C27,"&lt;/td&gt;&lt;td&gt;",Standards!D27,"&lt;/td&gt;&lt;td&gt;",Standards!E27,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91267.html%quote%'&gt;&lt;td&gt;91267&lt;/td&gt;&lt;td&gt;2.12&lt;/td&gt;&lt;td&gt;Apply probability methods in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A27," (",Standards!B27,") ",Standards!C27,"&lt;/h1&gt;
+ Credits: ",Standards!D27,"&lt;br&gt;
+ ",Standards!E27,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A27,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A27,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A27,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91267 (2.12) Apply probability methods in solving problems&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91267' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91267/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91267/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A28,".html%quote%'&gt;&lt;td&gt;",Standards!A28,"&lt;/td&gt;&lt;td&gt;",Standards!B28,"&lt;/td&gt;&lt;td&gt;",Standards!C28,"&lt;/td&gt;&lt;td&gt;",Standards!D28,"&lt;/td&gt;&lt;td&gt;",Standards!E28,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91268.html%quote%'&gt;&lt;td&gt;91268&lt;/td&gt;&lt;td&gt;2.13&lt;/td&gt;&lt;td&gt;Investigate a situation involving elements of chance using a simulation&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A28," (",Standards!B28,") ",Standards!C28,"&lt;/h1&gt;
+ Credits: ",Standards!D28,"&lt;br&gt;
+ ",Standards!E28,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A28,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A28,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A28,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91268 (2.13) Investigate a situation involving elements of chance using a simulation&lt;/h1&gt;
+ Credits: 2 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91268' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91268/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91268/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A29,".html%quote%'&gt;&lt;td&gt;",Standards!A29,"&lt;/td&gt;&lt;td&gt;",Standards!B29,"&lt;/td&gt;&lt;td&gt;",Standards!C29,"&lt;/td&gt;&lt;td&gt;",Standards!D29,"&lt;/td&gt;&lt;td&gt;",Standards!E29,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91269.html%quote%'&gt;&lt;td&gt;91269&lt;/td&gt;&lt;td&gt;2.14&lt;/td&gt;&lt;td&gt;Apply systems of equations in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A29," (",Standards!B29,") ",Standards!C29,"&lt;/h1&gt;
+ Credits: ",Standards!D29,"&lt;br&gt;
+ ",Standards!E29,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A29,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as",Standards!A29,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as",Standards!A29,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91269 (2.14) Apply systems of equations in solving problems&lt;/h1&gt;
+ Credits: 2 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91269' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-2/as91269/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-2-as91269/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-2-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level7' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A31,".html%quote%'&gt;&lt;td&gt;",Standards!A31,"&lt;/td&gt;&lt;td&gt;",Standards!B31,"&lt;/td&gt;&lt;td&gt;",Standards!C31,"&lt;/td&gt;&lt;td&gt;",Standards!D31,"&lt;/td&gt;&lt;td&gt;",Standards!E31,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91573.html%quote%'&gt;&lt;td&gt;91573&lt;/td&gt;&lt;td&gt;3.1&lt;/td&gt;&lt;td&gt;Apply the geometry of conic sections in solving problems&lt;/td&gt;&lt;td&gt;4 Credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A31," (",Standards!B31,") ",Standards!C31,"&lt;/h1&gt;
+ Credits: ",Standards!D31,"&lt;br&gt;
+ ",Standards!E31,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A31,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A31,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A31,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91573 (3.1) Apply the geometry of conic sections in solving problems&lt;/h1&gt;
+ Credits: 4 Credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91573' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91573/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91573/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A32,".html%quote%'&gt;&lt;td&gt;",Standards!A32,"&lt;/td&gt;&lt;td&gt;",Standards!B32,"&lt;/td&gt;&lt;td&gt;",Standards!C32,"&lt;/td&gt;&lt;td&gt;",Standards!D32,"&lt;/td&gt;&lt;td&gt;",Standards!E32,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91574.html%quote%'&gt;&lt;td&gt;91574&lt;/td&gt;&lt;td&gt;3.2&lt;/td&gt;&lt;td&gt;Apply linear programming methods in solving problems&lt;/td&gt;&lt;td&gt;3 Credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A32," (",Standards!B32,") ",Standards!C32,"&lt;/h1&gt;
+ Credits: ",Standards!D32,"&lt;br&gt;
+ ",Standards!E32,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A32,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A32,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A32,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91574 (3.2) Apply linear programming methods in solving problems&lt;/h1&gt;
+ Credits: 3 Credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91574' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91574/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91574/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A33,".html%quote%'&gt;&lt;td&gt;",Standards!A33,"&lt;/td&gt;&lt;td&gt;",Standards!B33,"&lt;/td&gt;&lt;td&gt;",Standards!C33,"&lt;/td&gt;&lt;td&gt;",Standards!D33,"&lt;/td&gt;&lt;td&gt;",Standards!E33,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91575.html%quote%'&gt;&lt;td&gt;91575&lt;/td&gt;&lt;td&gt;3.3&lt;/td&gt;&lt;td&gt;Apply trigonometric methods in solving problems&lt;/td&gt;&lt;td&gt;3 Credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A33," (",Standards!B33,") ",Standards!C33,"&lt;/h1&gt;
+ Credits: ",Standards!D33,"&lt;br&gt;
+ ",Standards!E33,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A33,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A33,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A33,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91575 (3.3) Apply trigonometric methods in solving problems&lt;/h1&gt;
+ Credits: 3 Credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91575' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91575/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91575/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A34,".html%quote%'&gt;&lt;td&gt;",Standards!A34,"&lt;/td&gt;&lt;td&gt;",Standards!B34,"&lt;/td&gt;&lt;td&gt;",Standards!C34,"&lt;/td&gt;&lt;td&gt;",Standards!D34,"&lt;/td&gt;&lt;td&gt;",Standards!E34,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91576.html%quote%'&gt;&lt;td&gt;91576&lt;/td&gt;&lt;td&gt;3.4&lt;/td&gt;&lt;td&gt;Use critical path analysis in solving problems&lt;/td&gt;&lt;td&gt;2 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A34," (",Standards!B34,") ",Standards!C34,"&lt;/h1&gt;
+ Credits: ",Standards!D34,"&lt;br&gt;
+ ",Standards!E34,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A34,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A34,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A34,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91576 (3.4) Use critical path analysis in solving problems&lt;/h1&gt;
+ Credits: 2 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91576' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91576/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91576/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A35,".html%quote%'&gt;&lt;td&gt;",Standards!A35,"&lt;/td&gt;&lt;td&gt;",Standards!B35,"&lt;/td&gt;&lt;td&gt;",Standards!C35,"&lt;/td&gt;&lt;td&gt;",Standards!D35,"&lt;/td&gt;&lt;td&gt;",Standards!E35,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91577.html%quote%'&gt;&lt;td&gt;91577&lt;/td&gt;&lt;td&gt;3.5&lt;/td&gt;&lt;td&gt;Apply the algebra of complex numbers in solving problems&lt;/td&gt;&lt;td&gt;5 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A35," (",Standards!B35,") ",Standards!C35,"&lt;/h1&gt;
+ Credits: ",Standards!D35,"&lt;br&gt;
+ ",Standards!E35,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A35,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A35,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A35,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91577 (3.5) Apply the algebra of complex numbers in solving problems&lt;/h1&gt;
+ Credits: 5 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91577' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91577/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91577/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A36,".html%quote%'&gt;&lt;td&gt;",Standards!A36,"&lt;/td&gt;&lt;td&gt;",Standards!B36,"&lt;/td&gt;&lt;td&gt;",Standards!C36,"&lt;/td&gt;&lt;td&gt;",Standards!D36,"&lt;/td&gt;&lt;td&gt;",Standards!E36,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91578.html%quote%'&gt;&lt;td&gt;91578&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;Apply differentiation methods in solving problems&lt;/td&gt;&lt;td&gt;6 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A36," (",Standards!B36,") ",Standards!C36,"&lt;/h1&gt;
+ Credits: ",Standards!D36,"&lt;br&gt;
+ ",Standards!E36,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A36,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A36,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A36,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91578 (3.6) Apply differentiation methods in solving problems&lt;/h1&gt;
+ Credits: 6 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91578' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91578/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91578/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A37,".html%quote%'&gt;&lt;td&gt;",Standards!A37,"&lt;/td&gt;&lt;td&gt;",Standards!B37,"&lt;/td&gt;&lt;td&gt;",Standards!C37,"&lt;/td&gt;&lt;td&gt;",Standards!D37,"&lt;/td&gt;&lt;td&gt;",Standards!E37,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91579.html%quote%'&gt;&lt;td&gt;91579&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;Apply integration methods in solving problems&lt;/td&gt;&lt;td&gt;6 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A37," (",Standards!B37,") ",Standards!C37,"&lt;/h1&gt;
+ Credits: ",Standards!D37,"&lt;br&gt;
+ ",Standards!E37,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A37,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A37,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A37,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91579 (3.7) Apply integration methods in solving problems&lt;/h1&gt;
+ Credits: 6 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91579' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91579/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91579/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A38,".html%quote%'&gt;&lt;td&gt;",Standards!A38,"&lt;/td&gt;&lt;td&gt;",Standards!B38,"&lt;/td&gt;&lt;td&gt;",Standards!C38,"&lt;/td&gt;&lt;td&gt;",Standards!D38,"&lt;/td&gt;&lt;td&gt;",Standards!E38,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91580.html%quote%'&gt;&lt;td&gt;91580&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;Investigate time series data&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A38," (",Standards!B38,") ",Standards!C38,"&lt;/h1&gt;
+ Credits: ",Standards!D38,"&lt;br&gt;
+ ",Standards!E38,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A38,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A38,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A38,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91580 (3.8) Investigate time series data&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91580' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91580/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91580/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A39,".html%quote%'&gt;&lt;td&gt;",Standards!A39,"&lt;/td&gt;&lt;td&gt;",Standards!B39,"&lt;/td&gt;&lt;td&gt;",Standards!C39,"&lt;/td&gt;&lt;td&gt;",Standards!D39,"&lt;/td&gt;&lt;td&gt;",Standards!E39,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91581.html%quote%'&gt;&lt;td&gt;91581&lt;/td&gt;&lt;td&gt;3.9&lt;/td&gt;&lt;td&gt;Investigate bivariate measurement data&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A39," (",Standards!B39,") ",Standards!C39,"&lt;/h1&gt;
+ Credits: ",Standards!D39,"&lt;br&gt;
+ ",Standards!E39,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A39,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A39,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A39,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91581 (3.9) Investigate bivariate measurement data&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91581' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91581/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91581/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A40,".html%quote%'&gt;&lt;td&gt;",Standards!A40,"&lt;/td&gt;&lt;td&gt;",Standards!B40,"&lt;/td&gt;&lt;td&gt;",Standards!C40,"&lt;/td&gt;&lt;td&gt;",Standards!D40,"&lt;/td&gt;&lt;td&gt;",Standards!E40,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91582.html%quote%'&gt;&lt;td&gt;91582&lt;/td&gt;&lt;td&gt;3.10&lt;/td&gt;&lt;td&gt;Use statistical methods to make a formal inference&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A40," (",Standards!B40,") ",Standards!C40,"&lt;/h1&gt;
+ Credits: ",Standards!D40,"&lt;br&gt;
+ ",Standards!E40,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A40,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A40,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A40,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91582 (3.10) Use statistical methods to make a formal inference&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91582' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91582/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91582/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A41,".html%quote%'&gt;&lt;td&gt;",Standards!A41,"&lt;/td&gt;&lt;td&gt;",Standards!B41,"&lt;/td&gt;&lt;td&gt;",Standards!C41,"&lt;/td&gt;&lt;td&gt;",Standards!D41,"&lt;/td&gt;&lt;td&gt;",Standards!E41,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91583.html%quote%'&gt;&lt;td&gt;91583&lt;/td&gt;&lt;td&gt;3.11&lt;/td&gt;&lt;td&gt;Conduct an experiment to investigate a situation using experimental design principles&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A41," (",Standards!B41,") ",Standards!C41,"&lt;/h1&gt;
+ Credits: ",Standards!D41,"&lt;br&gt;
+ ",Standards!E41,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A41,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A41,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A41,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91583 (3.11) Conduct an experiment to investigate a situation using experimental design principles&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91583' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91583/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91583/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A42,".html%quote%'&gt;&lt;td&gt;",Standards!A42,"&lt;/td&gt;&lt;td&gt;",Standards!B42,"&lt;/td&gt;&lt;td&gt;",Standards!C42,"&lt;/td&gt;&lt;td&gt;",Standards!D42,"&lt;/td&gt;&lt;td&gt;",Standards!E42,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91584.html%quote%'&gt;&lt;td&gt;91584&lt;/td&gt;&lt;td&gt;3.12&lt;/td&gt;&lt;td&gt;Evaluate statistically based reports&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A42," (",Standards!B42,") ",Standards!C42,"&lt;/h1&gt;
+ Credits: ",Standards!D42,"&lt;br&gt;
+ ",Standards!E42,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A42,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A42,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A42,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91584 (3.12) Evaluate statistically based reports&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91584' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91584/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91584/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A43,".html%quote%'&gt;&lt;td&gt;",Standards!A43,"&lt;/td&gt;&lt;td&gt;",Standards!B43,"&lt;/td&gt;&lt;td&gt;",Standards!C43,"&lt;/td&gt;&lt;td&gt;",Standards!D43,"&lt;/td&gt;&lt;td&gt;",Standards!E43,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91585.html%quote%'&gt;&lt;td&gt;91585&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;Apply probability concepts in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A43," (",Standards!B43,") ",Standards!C43,"&lt;/h1&gt;
+ Credits: ",Standards!D43,"&lt;br&gt;
+ ",Standards!E43,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A43,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A43,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A43,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91585 (3.13) Apply probability concepts in solving problems&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91585' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91585/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91585/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A44,".html%quote%'&gt;&lt;td&gt;",Standards!A44,"&lt;/td&gt;&lt;td&gt;",Standards!B44,"&lt;/td&gt;&lt;td&gt;",Standards!C44,"&lt;/td&gt;&lt;td&gt;",Standards!D44,"&lt;/td&gt;&lt;td&gt;",Standards!E44,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91586.html%quote%'&gt;&lt;td&gt;91586&lt;/td&gt;&lt;td&gt;3.14&lt;/td&gt;&lt;td&gt;Apply probability distributions in solving problems&lt;/td&gt;&lt;td&gt;4 credits&lt;/td&gt;&lt;td&gt;External&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A44," (",Standards!B44,") ",Standards!C44,"&lt;/h1&gt;
+ Credits: ",Standards!D44,"&lt;br&gt;
+ ",Standards!E44,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A44,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A44,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A44,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91586 (3.14) Apply probability distributions in solving problems&lt;/h1&gt;
+ Credits: 4 credits&lt;br&gt;
+ External&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91586' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91586/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91586/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CONCATENATE("&lt;tr class=click onclick='document.location=%quote%",Standards!A45,".html%quote%'&gt;&lt;td&gt;",Standards!A45,"&lt;/td&gt;&lt;td&gt;",Standards!B45,"&lt;/td&gt;&lt;td&gt;",Standards!C45,"&lt;/td&gt;&lt;td&gt;",Standards!D45,"&lt;/td&gt;&lt;td&gt;",Standards!E45,"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class=click onclick='document.location=%quote%91587.html%quote%'&gt;&lt;td&gt;91587&lt;/td&gt;&lt;td&gt;3.15&lt;/td&gt;&lt;td&gt;Apply systems of simultaneous equations in solving problems&lt;/td&gt;&lt;td&gt;3 credits&lt;/td&gt;&lt;td&gt;Internal&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",Standards!A45," (",Standards!B45,") ",Standards!C45,"&lt;/h1&gt;
+ Credits: ",Standards!D45,"&lt;br&gt;
+ ",Standards!E45,"&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=",Standards!A45,"' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as",Standards!A45,"/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as",Standards!A45,"/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of ","Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;")</f>
+        <v>&lt;h1&gt;91587 (3.15) Apply systems of simultaneous equations in solving problems&lt;/h1&gt;
+ Credits: 3 credits&lt;br&gt;
+ Internal&lt;br&gt;
+ &lt;br&gt;
+ Other Resources:
+ &lt;ul&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/ncea/assessment/view-detailed.do?standardNumber=91587' target='_blank'&gt;Standard and Assessment Reports&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/clarifications/level-3/as91587/' target='_blank'&gt;Clarifications to the Standard&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://www.nzqa.govt.nz/qualifications-standards/qualifications/ncea/subjects/mathematics/exemplars/level-3-as91587/' target='_blank'&gt;Exemplars&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://ncea.tki.org.nz/Resources-for-Internally-Assessed-Achievement-Standards/Mathematics-and-statistics/Level-3-Mathematics-and-statistics' target='_blank'&gt;TKI Tasks and Conditions of Assessment&lt;/a&gt;
+  &lt;li&gt;&lt;a href='http://seniorsecondary.tki.org.nz/Mathematics-and-statistics/Achievement-objectives/AOs-by-level#level8' target='_blank'&gt;Senior Secondary Achievement Objectives&lt;/a&gt;
+ &lt;/ul&gt;</v>
       </c>
     </row>
   </sheetData>
